--- a/techniqo/data_new_ticker/M&MFIN.xlsx
+++ b/techniqo/data_new_ticker/M&MFIN.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1414"/>
+  <dimension ref="A1:G1416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1393" workbookViewId="0">
       <selection activeCell="H1411" sqref="H1411"/>
@@ -49908,6 +49908,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>140.15</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>135.15</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>5181676</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>5677880</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
